--- a/workingDirectory/Örnek_3.xlsx
+++ b/workingDirectory/Örnek_3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mektup Nok</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Fabrikak</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -398,7 +392,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,20 +428,20 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
